--- a/secondary_outcomesRCT.xlsx
+++ b/secondary_outcomesRCT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -119,18 +119,6 @@
     <t xml:space="preserve">Eberhardt et al. 1990</t>
   </si>
   <si>
-    <t xml:space="preserve">Drawing_test__levodopa_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing_test__levodopa_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing_test__levodopa_and_citicoline_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing_test__levodopa_and_citicoline_follow-up</t>
-  </si>
-  <si>
     <t xml:space="preserve">Webster_score__levodopa_baseline</t>
   </si>
   <si>
@@ -143,18 +131,6 @@
     <t xml:space="preserve">Webster_score__levodopa_and_citicoline_follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">Pegboard_score__levodopa_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegboard_score__levodopa_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegboard_score__levodopa_and_citicoline_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegboard_score__levodopa_and_citicoline_follow-up</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
@@ -221,40 +197,16 @@
     <t xml:space="preserve">Macht et al. 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">subjective_tremor__PMR_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subjective_tremor__PMR_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subjective_tremor__music_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subjective_tremor__music_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_left__PMR_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_left__PMR_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_left__music_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_left__music_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_right__PMR_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_right__PMR_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_right__music_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter_right__music_follow-up</t>
+    <t xml:space="preserve">tremormeter__PMR_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__PMR_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__music_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__music_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -263,208 +215,163 @@
     <t xml:space="preserve">Malsch et al. 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">WRS_tremor_score__budipine_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRS_tremor_score__amantadine_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRS_tremor_score__budipine_mean-difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRS_tremor_score__amantadine_mean-difference</t>
+    <t xml:space="preserve">WRS_tremor-score__budipine_mean-difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRS_tremor-score__amantadine_mean-difference</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">Mannen et al. 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_tremor_score__bromocriptin-standard_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_tremor_score__bromocriptin-standard_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_tremor_score__bromocriptin-sustained_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_tremor_score__bromocriptin-sustained_follow-up</t>
+    <t xml:space="preserve">Navan et al. 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__placebo_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pergolide_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pergolide_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pramipexole_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pramipexole_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">Navan et al. 2003</t>
+    <t xml:space="preserve">Navan et al. 2003.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_baseline</t>
   </si>
   <si>
     <t xml:space="preserve">Likert_scale_rest_tremor__placebo_baseline</t>
   </si>
   <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_follow-up</t>
+  </si>
+  <si>
     <t xml:space="preserve">Likert_scale_rest_tremor__placebo_follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">Likert_scale_postural_tremor__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_postural_tremor__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_spiral_tremor__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_spiral_tremor__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_postural_tremor__pergolide_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_postural_tremor__pergolide_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_spiral_tremor__pergolide_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_spiral_tremor__pergolide_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_postural_tremor__pramipexole_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_postural_tremor__pramipexole_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_spiral_tremor__pramipexole_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_spiral_tremor__pramipexole_follow-up</t>
-  </si>
-  <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Navan et al. 2003.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__baseline</t>
+    <t xml:space="preserve">Nutt et al. 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__methylphenydate_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__methylphenydate_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__placebo_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Nutt et al. 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__methylphenydate_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__methylphenydate_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__placebo_follow-up</t>
+    <t xml:space="preserve">Olanow et al. 1987</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">Olanow et al. 1987</t>
+    <t xml:space="preserve">Przuntek et al. 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_subscore__budipine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_subscore__placebo</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">Przuntek et al. 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_subscore__budipine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_subscore__placebo</t>
+    <t xml:space="preserve">Rascol et al. 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URSPD_tremor__selegiline_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URSPD_tremor__selegiline_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">Rascol et al. 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URSPD_tremor__selegiline_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URSPD_tremor__selegiline_follow-up</t>
+    <t xml:space="preserve">Sivertsen et al. 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__apomorphine_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__apomorphine_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__biperiden_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__biperiden_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">Sivertsen et al. 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__apomorphine_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__apomorphine_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__biperiden_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__biperiden_follow-up</t>
+    <t xml:space="preserve">Spieker et al. 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__budipine_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__budipine_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__placebo_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
-    <t xml:space="preserve">Spieker et al. 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_total_tremor_score__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_total_tremor_score__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_total_tremor_score__budipine_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_total_tremor_score__budipine_follow-up</t>
+    <t xml:space="preserve">Tedeschi et al. 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest_tremor__placebo_percentual-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest_tremor__levodopa_percentual-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postural_tremor__placebo_percentual-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postural_tremor__levodopa_percentual-change</t>
   </si>
   <si>
     <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tedeschi et al. 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest_tremor__placebo_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest_tremor__levodopa_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postural_tremor__placebo_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postural_tremor__levodopa_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
   </si>
   <si>
     <t xml:space="preserve">Zhou et al. 2019</t>
@@ -968,32 +875,16 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
         <v>25</v>
       </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -1003,25 +894,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
@@ -1043,37 +934,37 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K6" t="s">
         <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -1089,19 +980,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1123,50 +1014,34 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
@@ -1177,29 +1052,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
         <v>25</v>
       </c>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1217,30 +1088,32 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10"/>
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1253,97 +1126,73 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10"/>
+      <c r="V10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>108</v>
-      </c>
-      <c r="R11" t="s">
-        <v>109</v>
-      </c>
-      <c r="S11" t="s">
-        <v>110</v>
-      </c>
-      <c r="T11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U11" t="s">
-        <v>112</v>
-      </c>
-      <c r="V11" t="s">
-        <v>25</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -1363,26 +1212,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1401,17 +1242,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -1431,19 +1278,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -1467,25 +1314,29 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1503,29 +1354,27 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1543,25 +1392,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -1581,25 +1430,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1617,44 +1466,6 @@
       <c r="U19"/>
       <c r="V19"/>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/secondary_outcomesRCT.xlsx
+++ b/secondary_outcomesRCT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -83,295 +83,259 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bergamasco et al. 2000</t>
+    <t xml:space="preserve">de Faria et al. 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Randomised-controlled trial (RCT)</t>
   </si>
   <si>
+    <t xml:space="preserve">tremor_amplitude__cannabis_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_amplitude__cannabis_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_amplitude__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_amplitude__placebo_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adverse events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heinonen et al. 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDS_tremor__selegiline_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDS_tremor__selegiline_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDS_tremor__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDS_tremor__placebo_follow-up</t>
+  </si>
+  <si>
     <t xml:space="preserve">adverse_events</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Faria et al. 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_amplitude__cbd_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_amplitude__cbd_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_amplitude__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_amplitude__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adverse events</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">Eberhardt et al. 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webster_score__levodopa_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webster_score__levodopa_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webster_score__levodopa_and_citicoline_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webster_score__levodopa_and_citicoline_follow-up</t>
+    <t xml:space="preserve">Kadkhodaie et al. 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__intervention_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__intervention_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__control_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__control_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Heinonen et al. 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__selegiline_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__selegiline_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__placebo_follow-up</t>
+    <t xml:space="preserve">Laihinen et al. 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__lisuride_percentual_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__bromocriptin_percentual_change</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">Kadkhodaie et al. 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__intervention_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__intervention_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__control_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__control_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postural_tremor_amplitude__intervention_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postural_tremor_amplitude__intervention_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postural_tremor_amplitude__control_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postural_tremor_amplitude__control_follow-up</t>
+    <t xml:space="preserve">Macht et al. 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__PMR_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__PMR_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__control_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__control_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Laihinen et al. 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__lisuride_percentual_change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__bromocriptin_percentual_change</t>
+    <t xml:space="preserve">Malsch et al. 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRS_tremor-score__budipine_mean-difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRS_tremor-score__amantadine_mean-difference</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">Macht et al. 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__PMR_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__PMR_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__music_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__music_follow-up</t>
+    <t xml:space="preserve">Navan et al. 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pergolide_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pergolide_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pramipexole_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__pramipexole_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_tremor_total__placebo_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">Malsch et al. 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRS_tremor-score__budipine_mean-difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRS_tremor-score__amantadine_mean-difference</t>
+    <t xml:space="preserve">Navan et al. 2003.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">Navan et al. 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_tremor_total__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_tremor_total__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_tremor_total__pergolide_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_tremor_total__pergolide_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_tremor_total__pramipexole_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_tremor_total__pramipexole_follow-up</t>
+    <t xml:space="preserve">Nutt et al. 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__methylphenydate_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__methylphenydate_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremor_score__placebo_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">Navan et al. 2003.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_follow-up</t>
+    <t xml:space="preserve">Olanow et al. 1987</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">Nutt et al. 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__methylphenydate_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__methylphenydate_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_score__placebo_follow-up</t>
+    <t xml:space="preserve">Przuntek et al. 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_subscore__budipine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_subscore__placebo</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">Olanow et al. 1987</t>
+    <t xml:space="preserve">Rascol et al. 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URSPD_tremor__selegiline_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URSPD_tremor__selegiline_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">Przuntek et al. 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_subscore__budipine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_subscore__placebo</t>
+    <t xml:space="preserve">Sivertsen et al. 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__apomorphine_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__apomorphine_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__biperiden_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__biperiden_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">Rascol et al. 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URSPD_tremor__selegiline_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URSPD_tremor__selegiline_follow-up</t>
+    <t xml:space="preserve">Spieker et al. 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__budipine_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__budipine_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor_score__placebo_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">Sivertsen et al. 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__apomorphine_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__apomorphine_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__biperiden_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__biperiden_follow-up</t>
+    <t xml:space="preserve">Tedeschi et al. 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest_tremor__placebo_percentual-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest_tremor__levodopa_percentual-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postural_tremor__placebo_percentual-change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postural_tremor__levodopa_percentual-change</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spieker et al. 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_score__budipine_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_score__budipine_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_score__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor_score__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tedeschi et al. 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest_tremor__placebo_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest_tremor__levodopa_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postural_tremor__placebo_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postural_tremor__levodopa_percentual-change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">Zhou et al. 2019</t>
@@ -793,10 +757,18 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -814,28 +786,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -854,29 +826,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -894,29 +864,23 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -934,38 +898,30 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -980,21 +936,23 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -1014,28 +972,32 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -1048,7 +1010,9 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8"/>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1067,11 +1031,17 @@
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -1088,32 +1058,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1126,38 +1092,24 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10" t="s">
-        <v>25</v>
-      </c>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -1174,26 +1126,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1212,17 +1162,23 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -1242,25 +1198,29 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
         <v>93</v>
       </c>
-      <c r="B14" t="s">
+      <c r="G14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1278,24 +1238,26 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>99</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1334,9 +1296,7 @@
       <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
+      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1369,10 +1329,10 @@
         <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -1390,82 +1350,6 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/secondary_outcomesRCT.xlsx
+++ b/secondary_outcomesRCT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -83,106 +83,91 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">de Faria et al. 2020</t>
+    <t xml:space="preserve">Heinonen et al. 1989</t>
   </si>
   <si>
     <t xml:space="preserve">Randomised-controlled trial (RCT)</t>
   </si>
   <si>
-    <t xml:space="preserve">tremor_amplitude__cannabis_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_amplitude__cannabis_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_amplitude__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremor_amplitude__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adverse events</t>
+    <t xml:space="preserve">CUDS_tremor__selegiline_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDS_tremor__selegiline_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDS_tremor__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDS_tremor__placebo_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adverse_events</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Heinonen et al. 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__selegiline_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__selegiline_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUDS_tremor__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adverse_events</t>
+    <t xml:space="preserve">Kadkhodaie et al. 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__intervention_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__intervention_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__control_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resting_tremor_amplitude__control_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">Kadkhodaie et al. 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__intervention_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__intervention_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__control_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resting_tremor_amplitude__control_follow-up</t>
+    <t xml:space="preserve">Laihinen et al. 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__lisuride_percentual_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURS_tremor__bromocriptin_percentual_change</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Laihinen et al. 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__lisuride_percentual_change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURS_tremor__bromocriptin_percentual_change</t>
+    <t xml:space="preserve">Macht et al. 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__PMR_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__PMR_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__control_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tremormeter__control_follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">Macht et al. 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__PMR_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__PMR_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__control_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tremormeter__control_follow-up</t>
+    <t xml:space="preserve">Malsch et al. 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRS_tremor-score__budipine_mean-difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRS_tremor-score__amantadine_mean-difference</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Malsch et al. 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRS_tremor-score__budipine_mean-difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WRS_tremor-score__amantadine_mean-difference</t>
+    <t xml:space="preserve">Mizuno et al. 2017</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -191,6 +176,36 @@
     <t xml:space="preserve">Navan et al. 2003</t>
   </si>
   <si>
+    <t xml:space="preserve">Likert-scale_rest-tremor__pramipexole_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert-scale_rest-tremor__pramipexole_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navan et al. 2003.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert-scale_rest-tremor__pergolide_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likert-scale_rest-tremor__pergolide_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navan et al. 2003.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Likert_scale_tremor_total__pergolide_baseline</t>
   </si>
   <si>
@@ -209,31 +224,7 @@
     <t xml:space="preserve">Likert_scale_tremor_total__placebo_follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navan et al. 2003.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pramipexole_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__pergolide_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likert_scale_rest_tremor__placebo_follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">Nutt et al. 2007</t>
@@ -251,13 +242,13 @@
     <t xml:space="preserve">tremor_score__placebo_follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">Olanow et al. 1987</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">Przuntek et al. 2002</t>
@@ -269,7 +260,7 @@
     <t xml:space="preserve">CURS_tremor_subscore__placebo</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">Rascol et al. 1988</t>
@@ -281,7 +272,13 @@
     <t xml:space="preserve">URSPD_tremor__selegiline_follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">URSPD_tremor__placebo_baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URSPD_tremor__placebo_follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">Sivertsen et al. 1989</t>
@@ -299,7 +296,7 @@
     <t xml:space="preserve">CURS_tremor__biperiden_follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">Spieker et al. 1999</t>
@@ -317,7 +314,7 @@
     <t xml:space="preserve">CURS_tremor_score__placebo_follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">Tedeschi et al. 1990</t>
@@ -335,7 +332,7 @@
     <t xml:space="preserve">Postural_tremor__levodopa_percentual-change</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">Zhou et al. 2019</t>
@@ -806,9 +803,7 @@
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -826,26 +821,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -864,22 +855,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -898,26 +893,24 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -936,23 +929,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -972,32 +959,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -1010,38 +993,32 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8" t="s">
-        <v>36</v>
-      </c>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -1058,28 +1035,32 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -1092,22 +1073,32 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10"/>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1126,23 +1117,17 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1162,22 +1147,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1198,28 +1183,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1238,27 +1223,29 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15"/>
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1276,25 +1263,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -1314,25 +1301,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -1350,6 +1337,44 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
